--- a/Эконометрика/КИП_Эконометрика_1_занятие(2).xlsx
+++ b/Эконометрика/КИП_Эконометрика_1_занятие(2).xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D27044-89C9-4ECA-9E80-E40660B9569C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t xml:space="preserve">х1 </t>
   </si>
@@ -79,23 +82,86 @@
     <t>x 3</t>
   </si>
   <si>
-    <t xml:space="preserve">y = </t>
-  </si>
-  <si>
     <t>Матрица Х</t>
   </si>
   <si>
     <t>Х транспонированная</t>
+  </si>
+  <si>
+    <t>Т наблюдаемое</t>
+  </si>
+  <si>
+    <t>&gt; любого из Т наблюдаемых по модулю</t>
+  </si>
+  <si>
+    <t>Все коэфф. Статистич. Значимы</t>
+  </si>
+  <si>
+    <t>Опросили 15 женщин в роддоме с целью иссл зависимости веса новорожд от числа сигарет и колва детей</t>
+  </si>
+  <si>
+    <t>Y - вес р.</t>
+  </si>
+  <si>
+    <t>X - ср. ч. Сиг. В день</t>
+  </si>
+  <si>
+    <t>Z - ч. Детей</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>Т крит</t>
+  </si>
+  <si>
+    <t>УМНОЖ</t>
+  </si>
+  <si>
+    <t>МАТРИЦА</t>
+  </si>
+  <si>
+    <t>ТРАНСП</t>
+  </si>
+  <si>
+    <t>F КРИТ</t>
+  </si>
+  <si>
+    <t>lgx1</t>
+  </si>
+  <si>
+    <t>lgx2</t>
+  </si>
+  <si>
+    <t>lgx3</t>
+  </si>
+  <si>
+    <t>lgx4</t>
+  </si>
+  <si>
+    <t>lgy</t>
+  </si>
+  <si>
+    <t>Т НАБЛЮДАЕМОЕ</t>
+  </si>
+  <si>
+    <t>Т КРИТ</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000000000000000E+00"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +192,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -289,11 +388,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,7 +454,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,14 +765,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -739,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +898,10 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,22 +918,34 @@
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2310</v>
       </c>
@@ -819,11 +977,21 @@
       <c r="K2">
         <v>56.587021193825734</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <f t="array" ref="N2:Q6">LINEST(E2:E12,B2:D12,1,1)</f>
+        <v>-0.21152052783991721</v>
+      </c>
+      <c r="O2">
+        <v>4.262870518467639</v>
+      </c>
+      <c r="P2">
+        <v>12.72548532887771</v>
+      </c>
+      <c r="Q2">
+        <v>113.84821382651212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2333</v>
       </c>
@@ -854,8 +1022,20 @@
       <c r="K3">
         <v>12.661689427937443</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>2.5358450022090452E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.83981982709505598</v>
+      </c>
+      <c r="P3">
+        <v>0.80717688173958069</v>
+      </c>
+      <c r="Q3">
+        <v>2.7255495334952351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2356</v>
       </c>
@@ -886,8 +1066,20 @@
       <c r="K4" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>0.98461775814850139</v>
+      </c>
+      <c r="O4">
+        <v>1.9614175021836124</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2379</v>
       </c>
@@ -918,8 +1110,20 @@
       <c r="K5" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>149.35673602453565</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2402</v>
       </c>
@@ -950,8 +1154,20 @@
       <c r="K6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1723.7971624021675</v>
+      </c>
+      <c r="O6">
+        <v>26.93011032510541</v>
+      </c>
+      <c r="P6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2425</v>
       </c>
@@ -983,7 +1199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2448</v>
       </c>
@@ -1014,8 +1230,12 @@
       <c r="K8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <f>((G4-N4)/(1-G4))*((11-4-1-1)/1)</f>
+        <v>17.252963690901971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2471</v>
       </c>
@@ -1046,8 +1266,12 @@
       <c r="K9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <f>FINV(0.05,1,11-4-1-1)</f>
+        <v>6.607890973703368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2494</v>
       </c>
@@ -1064,7 +1288,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2517</v>
       </c>
@@ -1080,8 +1304,15 @@
       <c r="E11" s="6">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>2540</v>
       </c>
@@ -1097,81 +1328,48 @@
       <c r="E12" s="9">
         <v>149</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="17">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2310</v>
-      </c>
-      <c r="J13" s="18">
-        <v>2</v>
-      </c>
-      <c r="K13" s="18">
-        <v>2</v>
-      </c>
-      <c r="L13" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>2333</v>
-      </c>
-      <c r="J14" s="18">
-        <v>2</v>
-      </c>
-      <c r="K14" s="18">
-        <v>2</v>
-      </c>
-      <c r="L14" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>2356</v>
-      </c>
-      <c r="J15" s="18">
-        <v>3</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="17">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18">
-        <v>2379</v>
-      </c>
-      <c r="J16" s="18">
-        <v>3</v>
-      </c>
-      <c r="K16" s="18">
-        <v>2</v>
-      </c>
-      <c r="L16" s="18">
-        <v>43</v>
-      </c>
+      <c r="G12">
+        <f>G2/G3</f>
+        <v>-16.886156487554977</v>
+      </c>
+      <c r="H12">
+        <f>H2/H3</f>
+        <v>4.9341621046330406</v>
+      </c>
+      <c r="I12">
+        <f>I2/I3</f>
+        <v>30.483683496896948</v>
+      </c>
+      <c r="J12">
+        <f>J2/J3</f>
+        <v>4.5501160896270356</v>
+      </c>
+      <c r="K12">
+        <f>K2/K3</f>
+        <v>4.4691525183810814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="20">
+        <f>TINV(0.05,6)</f>
+        <v>2.4469118511449697</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D17">
@@ -1182,16 +1380,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="18">
-        <v>2402</v>
+        <v>2310</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
       </c>
       <c r="K17" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="18">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1199,16 +1397,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="18">
-        <v>2425</v>
+        <v>2333</v>
       </c>
       <c r="J18" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="18">
         <v>2</v>
       </c>
       <c r="L18" s="18">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1232,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="18">
-        <v>2448</v>
+        <v>2356</v>
       </c>
       <c r="J19" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="18">
         <v>1.5</v>
       </c>
       <c r="L19" s="18">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1271,16 +1469,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="18">
-        <v>2471</v>
+        <v>2379</v>
       </c>
       <c r="J20" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="18">
         <v>2</v>
       </c>
       <c r="L20" s="18">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1311,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="18">
-        <v>2494</v>
+        <v>2402</v>
       </c>
       <c r="J21" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="18">
         <v>3</v>
       </c>
       <c r="L21" s="18">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1351,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="18">
-        <v>2517</v>
+        <v>2425</v>
       </c>
       <c r="J22" s="18">
         <v>4</v>
       </c>
       <c r="K22" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L22" s="18">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1391,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="18">
-        <v>2540</v>
+        <v>2448</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
       </c>
       <c r="K23" s="18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="18">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1427,55 +1625,54 @@
         <f>CORREL($E$2:$E$12,E2:E12)</f>
         <v>0.99999999999999978</v>
       </c>
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2471</v>
+      </c>
+      <c r="J24" s="18">
+        <v>2</v>
+      </c>
+      <c r="K24" s="18">
+        <v>2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2494</v>
+      </c>
+      <c r="J25" s="18">
+        <v>3</v>
+      </c>
+      <c r="K25" s="18">
+        <v>3</v>
+      </c>
+      <c r="L25" s="18">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="17">
         <v>1</v>
       </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="17">
-        <v>1</v>
-      </c>
-      <c r="K26" s="17">
-        <v>1</v>
-      </c>
-      <c r="L26" s="17">
-        <v>1</v>
-      </c>
-      <c r="M26" s="17">
-        <v>1</v>
-      </c>
-      <c r="N26" s="17">
-        <v>1</v>
-      </c>
-      <c r="O26" s="17">
-        <v>1</v>
-      </c>
-      <c r="P26" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>1</v>
-      </c>
-      <c r="R26" s="17">
-        <v>1</v>
+      <c r="I26" s="18">
+        <v>2517</v>
+      </c>
+      <c r="J26" s="18">
+        <v>4</v>
+      </c>
+      <c r="K26" s="18">
+        <v>4</v>
+      </c>
+      <c r="L26" s="18">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -1495,38 +1692,20 @@
       <c r="F27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="18">
-        <v>2310</v>
+      <c r="H27" s="17">
+        <v>1</v>
       </c>
       <c r="I27" s="18">
-        <v>2333</v>
+        <v>2540</v>
       </c>
       <c r="J27" s="18">
-        <v>2356</v>
+        <v>2</v>
       </c>
       <c r="K27" s="18">
-        <v>2379</v>
+        <v>3</v>
       </c>
       <c r="L27" s="18">
-        <v>2402</v>
-      </c>
-      <c r="M27" s="18">
-        <v>2425</v>
-      </c>
-      <c r="N27" s="18">
-        <v>2448</v>
-      </c>
-      <c r="O27" s="18">
-        <v>2471</v>
-      </c>
-      <c r="P27" s="18">
-        <v>2494</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>2517</v>
-      </c>
-      <c r="R27" s="18">
-        <v>2540</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -1540,39 +1719,6 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="H28" s="18">
-        <v>2</v>
-      </c>
-      <c r="I28" s="18">
-        <v>2</v>
-      </c>
-      <c r="J28" s="18">
-        <v>3</v>
-      </c>
-      <c r="K28" s="18">
-        <v>3</v>
-      </c>
-      <c r="L28" s="18">
-        <v>2</v>
-      </c>
-      <c r="M28" s="18">
-        <v>4</v>
-      </c>
-      <c r="N28" s="18">
-        <v>2</v>
-      </c>
-      <c r="O28" s="18">
-        <v>2</v>
-      </c>
-      <c r="P28" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>4</v>
-      </c>
-      <c r="R28" s="18">
-        <v>2</v>
-      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
@@ -1587,39 +1733,19 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="H29" s="18">
-        <v>2</v>
-      </c>
-      <c r="I29" s="18">
-        <v>2</v>
-      </c>
-      <c r="J29" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="K29" s="18">
-        <v>2</v>
-      </c>
-      <c r="L29" s="18">
-        <v>3</v>
-      </c>
-      <c r="M29" s="18">
-        <v>2</v>
-      </c>
-      <c r="N29" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="O29" s="18">
-        <v>2</v>
-      </c>
-      <c r="P29" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>4</v>
-      </c>
-      <c r="R29" s="18">
-        <v>3</v>
-      </c>
+      <c r="H29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -1636,38 +1762,38 @@
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="H30" s="18">
-        <v>20</v>
-      </c>
-      <c r="I30" s="18">
-        <v>12</v>
-      </c>
-      <c r="J30" s="18">
-        <v>33</v>
-      </c>
-      <c r="K30" s="18">
-        <v>43</v>
-      </c>
-      <c r="L30" s="18">
-        <v>53</v>
-      </c>
-      <c r="M30" s="18">
-        <v>23</v>
-      </c>
-      <c r="N30" s="18">
-        <v>99</v>
-      </c>
-      <c r="O30" s="18">
-        <v>34</v>
-      </c>
-      <c r="P30" s="18">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>55</v>
-      </c>
-      <c r="R30" s="18">
-        <v>22</v>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17">
+        <v>1</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1</v>
+      </c>
+      <c r="P30" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>1</v>
+      </c>
+      <c r="R30" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -1687,6 +1813,39 @@
         <v>1</v>
       </c>
       <c r="F31" s="14"/>
+      <c r="H31" s="18">
+        <v>2310</v>
+      </c>
+      <c r="I31" s="18">
+        <v>2333</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2356</v>
+      </c>
+      <c r="K31" s="18">
+        <v>2379</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2402</v>
+      </c>
+      <c r="M31" s="18">
+        <v>2425</v>
+      </c>
+      <c r="N31" s="18">
+        <v>2448</v>
+      </c>
+      <c r="O31" s="18">
+        <v>2471</v>
+      </c>
+      <c r="P31" s="18">
+        <v>2494</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>2517</v>
+      </c>
+      <c r="R31" s="18">
+        <v>2540</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
@@ -1707,101 +1866,1872 @@
       <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="H32">
-        <f t="array" ref="H32:L36">MMULT(H26:R30,H13:L23)</f>
+      <c r="H32" s="18">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18">
+        <v>2</v>
+      </c>
+      <c r="J32" s="18">
+        <v>3</v>
+      </c>
+      <c r="K32" s="18">
+        <v>3</v>
+      </c>
+      <c r="L32" s="18">
+        <v>2</v>
+      </c>
+      <c r="M32" s="18">
+        <v>4</v>
+      </c>
+      <c r="N32" s="18">
+        <v>2</v>
+      </c>
+      <c r="O32" s="18">
+        <v>2</v>
+      </c>
+      <c r="P32" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>4</v>
+      </c>
+      <c r="R32" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H33" s="18">
+        <v>2</v>
+      </c>
+      <c r="I33" s="18">
+        <v>2</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="K33" s="18">
+        <v>2</v>
+      </c>
+      <c r="L33" s="18">
+        <v>3</v>
+      </c>
+      <c r="M33" s="18">
+        <v>2</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O33" s="18">
+        <v>2</v>
+      </c>
+      <c r="P33" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>4</v>
+      </c>
+      <c r="R33" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H34" s="18">
+        <v>20</v>
+      </c>
+      <c r="I34" s="18">
+        <v>12</v>
+      </c>
+      <c r="J34" s="18">
+        <v>33</v>
+      </c>
+      <c r="K34" s="18">
+        <v>43</v>
+      </c>
+      <c r="L34" s="18">
+        <v>53</v>
+      </c>
+      <c r="M34" s="18">
+        <v>23</v>
+      </c>
+      <c r="N34" s="18">
+        <v>99</v>
+      </c>
+      <c r="O34" s="18">
+        <v>34</v>
+      </c>
+      <c r="P34" s="18">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>55</v>
+      </c>
+      <c r="R34" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="array" ref="H36:L40">MMULT(H30:R34,H17:L27)</f>
         <v>11</v>
       </c>
-      <c r="I32">
+      <c r="I36">
         <v>26675</v>
       </c>
-      <c r="J32">
+      <c r="J36">
         <v>29</v>
       </c>
-      <c r="K32">
+      <c r="K36">
         <v>26</v>
       </c>
-      <c r="L32">
+      <c r="L36">
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H33">
+    <row r="37" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H37">
         <v>26675</v>
       </c>
-      <c r="I33">
+      <c r="I37">
         <v>64745065</v>
       </c>
-      <c r="J33">
+      <c r="J37">
         <v>70463</v>
       </c>
-      <c r="K33">
+      <c r="K37">
         <v>63418</v>
       </c>
-      <c r="L33">
+      <c r="L37">
         <v>1015365</v>
       </c>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34">
+    <row r="38" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H38">
         <v>29</v>
       </c>
-      <c r="I34">
+      <c r="I38">
         <v>70463</v>
       </c>
-      <c r="J34">
+      <c r="J38">
         <v>83</v>
       </c>
-      <c r="K34">
+      <c r="K38">
         <v>70.5</v>
       </c>
-      <c r="L34">
+      <c r="L38">
         <v>1089</v>
       </c>
-      <c r="N34" s="20">
-        <f>MDETERM(H32:L36)</f>
+      <c r="N38" s="21">
+        <f>MDETERM(H36:L40)</f>
         <v>75183958894.000153</v>
       </c>
     </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H35">
+    <row r="39" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H39">
         <v>26</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>63418</v>
       </c>
-      <c r="J35">
+      <c r="J39">
         <v>70.5</v>
       </c>
-      <c r="K35">
+      <c r="K39">
         <v>67.5</v>
       </c>
-      <c r="L35">
+      <c r="L39">
         <v>976</v>
       </c>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36">
+    <row r="40" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H40">
         <v>417</v>
       </c>
-      <c r="I36">
+      <c r="I40">
         <v>1015365</v>
       </c>
-      <c r="J36">
+      <c r="J40">
         <v>1089</v>
       </c>
-      <c r="K36">
+      <c r="K40">
         <v>976</v>
       </c>
-      <c r="L36">
+      <c r="L40">
         <v>21815</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H25:R25"/>
+  <mergeCells count="3">
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8FD63-4499-4FF0-ABD9-5F78CADD3907}">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>2310</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24">
+        <v>20</v>
+      </c>
+      <c r="E2" s="24">
+        <v>142</v>
+      </c>
+      <c r="F2" s="27">
+        <f>LN(A2)</f>
+        <v>7.7450028035158391</v>
+      </c>
+      <c r="G2" s="27">
+        <f t="shared" ref="G2:J12" si="0">LN(B2)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H2" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I2" s="27">
+        <f t="shared" si="0"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="J2" s="27">
+        <f t="shared" si="0"/>
+        <v>4.9558270576012609</v>
+      </c>
+      <c r="L2" s="19">
+        <f t="array" ref="L2:P6">LINEST(J2:J12,F2:I12,1,1)</f>
+        <v>-6.3457550698411788E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <v>6.5840504199636773E-2</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0.24803013870534979</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0.35132369973654864</v>
+      </c>
+      <c r="P2" s="19">
+        <v>2.201645070923214</v>
+      </c>
+      <c r="X2" s="29"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>2333</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24">
+        <v>144</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F12" si="1">LN(A3)</f>
+        <v>7.75491027202143</v>
+      </c>
+      <c r="G3" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H3" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="J3" s="27">
+        <f t="shared" si="0"/>
+        <v>4.9698132995760007</v>
+      </c>
+      <c r="L3" s="19">
+        <v>7.1323330756290926E-3</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1.6063564517785608E-2</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1.3783940718747131E-2</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0.16535403029177179</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1.2706655456669942</v>
+      </c>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>2356</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="24">
+        <v>33</v>
+      </c>
+      <c r="E4" s="24">
+        <v>151</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7647205447714773</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="0"/>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0172798368149243</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0.9886530812735409</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1.2203308508620666E-2</v>
+      </c>
+      <c r="N4" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>2379</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24">
+        <v>150</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7744355103029577</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>3.7612001156935624</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0106352940962555</v>
+      </c>
+      <c r="L5" s="19">
+        <v>130.69447818042997</v>
+      </c>
+      <c r="M5" s="19">
+        <v>6</v>
+      </c>
+      <c r="N5" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>2402</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>53</v>
+      </c>
+      <c r="E6" s="24">
+        <v>139</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7840570026399289</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="0"/>
+        <v>3.970291913552122</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>4.9344739331306915</v>
+      </c>
+      <c r="L6" s="19">
+        <v>7.7852472863582461E-2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>8.935244313394413E-4</v>
+      </c>
+      <c r="N6" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>2425</v>
+      </c>
+      <c r="B7" s="24">
+        <v>4</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24">
+        <v>169</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="1"/>
+        <v>7.7935868033715838</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="0"/>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>5.1298987149230735</v>
+      </c>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>2448</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>99</v>
+      </c>
+      <c r="E8" s="24">
+        <v>126</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8030266436322169</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="0"/>
+        <v>4.5951198501345898</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>4.836281906951478</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2471</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24">
+        <v>34</v>
+      </c>
+      <c r="E9" s="24">
+        <v>142</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="1"/>
+        <v>7.81237820598861</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="0"/>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>4.9558270576012609</v>
+      </c>
+      <c r="L9" s="19">
+        <f>L2/L3</f>
+        <v>-8.8971659098821103</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" ref="M9:P9" si="2">M2/M3</f>
+        <v>4.0987480784067598</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="2"/>
+        <v>17.994138524406981</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="2"/>
+        <v>2.1246757585323333</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="2"/>
+        <v>1.7326707869201983</v>
+      </c>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>2494</v>
+      </c>
+      <c r="B10" s="24">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>3</v>
+      </c>
+      <c r="D10" s="24">
+        <v>23</v>
+      </c>
+      <c r="E10" s="24">
+        <v>163</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8216431262399819</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0937502008067623</v>
+      </c>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>2517</v>
+      </c>
+      <c r="B11" s="24">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24">
+        <v>55</v>
+      </c>
+      <c r="E11" s="24">
+        <v>169</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8308229951353159</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>4.0073331852324712</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>5.1298987149230735</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>2540</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24">
+        <v>22</v>
+      </c>
+      <c r="E12" s="24">
+        <v>149</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8399193600125825</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="0"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0039463059454592</v>
+      </c>
+      <c r="L12" s="19">
+        <f>TINV(0.05,M5)</f>
+        <v>2.4469118511449697</v>
+      </c>
+      <c r="N12" s="19">
+        <f>_xlfn.F.DIST(0.05,6,12,TRUE)</f>
+        <v>7.4105003506105469E-4</v>
+      </c>
+      <c r="X12" s="28"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U14" s="28"/>
+      <c r="AA14" s="28"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V15" s="28"/>
+      <c r="Z15" s="28"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+    </row>
+    <row r="17" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X17" s="30"/>
+    </row>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <f t="array" ref="H2:K6">LINEST(A3:A17+B3:B17,C3:E17,1,1)</f>
+        <v>-4.4124999999999934</v>
+      </c>
+      <c r="I2">
+        <v>-8.0724999999999962</v>
+      </c>
+      <c r="J2">
+        <v>-9.2974999999999977</v>
+      </c>
+      <c r="K2">
+        <v>25.232499999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>3.52</v>
+      </c>
+      <c r="B3" s="22">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C17" si="0">IF(F3=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <f>IF(F3=2,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E17" si="1">IF(F3=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>7.3797802304675697</v>
+      </c>
+      <c r="I3">
+        <v>6.5083544067093726</v>
+      </c>
+      <c r="J3">
+        <v>5.5005634181115166</v>
+      </c>
+      <c r="K3">
+        <v>4.2607181026207304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="B4" s="22">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D17" si="2">IF(F4=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0.2213558342717088</v>
+      </c>
+      <c r="I4">
+        <v>8.5214362052414607</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>16</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.0423735188937222</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>3.32</v>
+      </c>
+      <c r="B6" s="22">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>227.07546833333333</v>
+      </c>
+      <c r="I6">
+        <v>798.76362499999993</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3.54</v>
+      </c>
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>3.31</v>
+      </c>
+      <c r="B8" s="22">
+        <v>14</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>3.36</v>
+      </c>
+      <c r="B9" s="22">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>H2/H3</f>
+        <v>-0.59791753442506312</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:K9" si="3">I2/I3</f>
+        <v>-1.2403288904608771</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>-1.6902813936089598</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>5.9221237810780547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="B10" s="22">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>3.15</v>
+      </c>
+      <c r="B11" s="22">
+        <v>22</v>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>3.44</v>
+      </c>
+      <c r="B12" s="22">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>TINV(0.05,I5-1)</f>
+        <v>2.2281388519862744</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="22">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>3</v>
+      </c>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>3.22</v>
+      </c>
+      <c r="B14" s="22">
+        <v>29</v>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>3.71</v>
+      </c>
+      <c r="B15" s="22">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.F.DIST(0.05,2,11,TRUE)</f>
+        <v>4.8555664084328258E-2</v>
+      </c>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>3.76</v>
+      </c>
+      <c r="B16" s="22">
+        <v>6</v>
+      </c>
+      <c r="C16" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>3.92</v>
+      </c>
+      <c r="B17" s="22">
+        <v>8</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3.52</v>
+      </c>
+      <c r="D20" s="22">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="D21" s="22">
+        <v>19</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22">
+        <v>3.32</v>
+      </c>
+      <c r="D23" s="22">
+        <v>28</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
+        <v>3.54</v>
+      </c>
+      <c r="D24" s="22">
+        <v>4</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22">
+        <v>3.31</v>
+      </c>
+      <c r="D25" s="22">
+        <v>14</v>
+      </c>
+      <c r="E25" s="22">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22">
+        <v>3.36</v>
+      </c>
+      <c r="D26" s="22">
+        <v>21</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="D27" s="22">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3.15</v>
+      </c>
+      <c r="D28" s="22">
+        <v>22</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22">
+        <v>3.44</v>
+      </c>
+      <c r="D29" s="22">
+        <v>12</v>
+      </c>
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="D30" s="22">
+        <v>31</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22">
+        <v>3.22</v>
+      </c>
+      <c r="D31" s="22">
+        <v>29</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22">
+        <v>3.71</v>
+      </c>
+      <c r="D32" s="22">
+        <v>8</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22">
+        <v>3.76</v>
+      </c>
+      <c r="D33" s="22">
+        <v>6</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22">
+        <v>3.92</v>
+      </c>
+      <c r="D34" s="22">
+        <v>8</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13">
+        <v>1</v>
+      </c>
+      <c r="N36" s="13">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="22">
+        <v>3.52</v>
+      </c>
+      <c r="C37" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="D37" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="E37" s="22">
+        <v>3.32</v>
+      </c>
+      <c r="F37" s="22">
+        <v>3.54</v>
+      </c>
+      <c r="G37" s="22">
+        <v>3.31</v>
+      </c>
+      <c r="H37" s="22">
+        <v>3.36</v>
+      </c>
+      <c r="I37" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="J37" s="22">
+        <v>3.15</v>
+      </c>
+      <c r="K37" s="22">
+        <v>3.44</v>
+      </c>
+      <c r="L37" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="M37" s="22">
+        <v>3.22</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.71</v>
+      </c>
+      <c r="O37" s="22">
+        <v>3.76</v>
+      </c>
+      <c r="P37" s="22">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="22">
+        <v>10</v>
+      </c>
+      <c r="C38" s="22">
+        <v>19</v>
+      </c>
+      <c r="D38" s="22">
+        <v>16</v>
+      </c>
+      <c r="E38" s="22">
+        <v>28</v>
+      </c>
+      <c r="F38" s="22">
+        <v>4</v>
+      </c>
+      <c r="G38" s="22">
+        <v>14</v>
+      </c>
+      <c r="H38" s="22">
+        <v>21</v>
+      </c>
+      <c r="I38" s="22">
+        <v>10</v>
+      </c>
+      <c r="J38" s="22">
+        <v>22</v>
+      </c>
+      <c r="K38" s="22">
+        <v>12</v>
+      </c>
+      <c r="L38" s="22">
+        <v>31</v>
+      </c>
+      <c r="M38" s="22">
+        <v>29</v>
+      </c>
+      <c r="N38" s="22">
+        <v>8</v>
+      </c>
+      <c r="O38" s="22">
+        <v>6</v>
+      </c>
+      <c r="P38" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="22">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3</v>
+      </c>
+      <c r="G39" s="22">
+        <v>2</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="I39" s="22">
+        <v>1</v>
+      </c>
+      <c r="J39" s="22">
+        <v>0</v>
+      </c>
+      <c r="K39" s="22">
+        <v>1</v>
+      </c>
+      <c r="L39" s="22">
+        <v>3</v>
+      </c>
+      <c r="M39" s="22">
+        <v>0</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>1</v>
+      </c>
+      <c r="P39" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="array" ref="B41:E44">MMULT(B36:P39,B20:E34)</f>
+        <v>15</v>
+      </c>
+      <c r="C41" s="11">
+        <v>51.66</v>
+      </c>
+      <c r="D41" s="11">
+        <v>238</v>
+      </c>
+      <c r="E41" s="11">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <f>MDETERM(B41:E44)</f>
+        <v>66911.662800002756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>51.66</v>
+      </c>
+      <c r="C42" s="11">
+        <v>178.7268</v>
+      </c>
+      <c r="D42" s="11">
+        <v>796.31999999999994</v>
+      </c>
+      <c r="E42" s="11">
+        <v>62.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>238</v>
+      </c>
+      <c r="C43" s="11">
+        <v>796.31999999999994</v>
+      </c>
+      <c r="D43" s="11">
+        <v>4848</v>
+      </c>
+      <c r="E43" s="11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>18</v>
+      </c>
+      <c r="C44" s="11">
+        <v>62.49</v>
+      </c>
+      <c r="D44" s="11">
+        <v>261</v>
+      </c>
+      <c r="E44" s="11">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>